--- a/JPEM_DAPP/Tableau Table 3.xlsx
+++ b/JPEM_DAPP/Tableau Table 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JPEM_Git_Main\JPEM\JPEM_DAPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC92DB6-ADD3-4778-A3B8-C7A6DFEB5791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67D1D15-3C4D-4A41-86FA-3962AF1AF92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="3990" windowWidth="28800" windowHeight="11835" xr2:uid="{A74BD294-E774-4C6F-86CB-E95C3C562A3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{A74BD294-E774-4C6F-86CB-E95C3C562A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F20C56-92C5-4A3D-8B39-8679BA534231}">
   <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D252"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/JPEM_DAPP/Tableau Table 3.xlsx
+++ b/JPEM_DAPP/Tableau Table 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JPEM_Git_Main\JPEM\JPEM_DAPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67D1D15-3C4D-4A41-86FA-3962AF1AF92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B3F22-9BCC-46DA-8A1A-2191BBF99BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{A74BD294-E774-4C6F-86CB-E95C3C562A3E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$252</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="257">
   <si>
     <t>Location</t>
   </si>
@@ -804,13 +804,19 @@
   </si>
   <si>
     <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Europe/Asia</t>
+  </si>
+  <si>
+    <t>Continent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -818,13 +824,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12.25"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -839,8 +857,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,3795 +1199,4552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F20C56-92C5-4A3D-8B39-8679BA534231}">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
         <v>896007</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>690791</v>
       </c>
-      <c r="D2" s="1">
-        <f>C2/B2</f>
+      <c r="E2" s="2">
+        <f>D2/C2</f>
         <v>0.77096607504182446</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3">
         <v>449002</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>343826</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D66" si="0">C3/B3</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E66" si="0">D3/C3</f>
         <v>0.76575605453873252</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
         <v>33690</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>25292</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>0.75072721875927573</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
         <v>8939617</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6082342</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.68038060243520504</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6">
         <v>51815808</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>34571873</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.66720706159788146</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
         <v>53117</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>34658</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.65248413878795863</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
         <v>2119843</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1355867</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.63960727280274998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
         <v>32677</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>20550</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.62888270037029104</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10">
         <v>367512</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>230354</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.62679313872744291</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
         <v>647601</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>391306</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0.60423933872863078</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
         <v>79843</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>48015</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.60136768408000696</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
         <v>110796</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>66391</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.59921838333513844</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14">
         <v>5882259</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3434777</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>0.58392141522500118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15">
         <v>5885</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3426</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>0.58215802888700086</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16">
         <v>67813000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>38997490</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>0.57507395337177236</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
         <v>372903</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>209920</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>0.56293459693271442</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18">
         <v>63329</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>35326</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0.5578171138025233</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
         <v>10270857</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>5643269</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0.54944480290203634</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20">
         <v>39355</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>21575</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0.5482149663321052</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21">
         <v>1952</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1059</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0.54252049180327866</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22">
         <v>10384972</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>5630711</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0.54219799533402691</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23">
         <v>5637022</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3006155</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0.53328778919081743</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24">
         <v>1850654</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>977701</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0.52830026574389377</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25">
         <v>395762</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>203235</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>0.51352833268479536</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26">
         <v>9449000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4841558</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>0.51238840088898296</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
         <v>8740471</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4453382</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>0.50951281687222572</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28">
         <v>974062</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>494595</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>0.50776541944968601</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29">
         <v>3801</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1923</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>0.50591949486977106</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30">
         <v>10994</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>5507</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>0.50090958704748045</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31">
         <v>5185289</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2582892</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>0.49811919837062119</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32">
         <v>3744385</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1862754</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>0.49747929232704435</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
         <v>2750058</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1366035</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>0.49672952352277661</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34">
         <v>17564020</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>8636015</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>0.49168783683917461</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35">
         <v>107135</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>51684</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>0.48241937742101088</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36">
         <v>1472237</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>696614</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>0.47316702405930566</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37">
         <v>36491</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>17181</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>0.47082842344687731</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38">
         <v>83369840</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>38437756</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>0.46105109473641787</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
         <v>1326064</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>610328</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="2">
         <f t="shared" si="0"/>
         <v>0.46025531196081032</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40">
         <v>68722</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>31472</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="2">
         <f t="shared" si="0"/>
         <v>0.45796106050464191</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
         <v>10493990</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>4759112</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="2">
         <f t="shared" si="0"/>
         <v>0.45350834144114871</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42">
         <v>59037472</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>26720033</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>0.45259446407190335</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43">
         <v>26177410</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>11831918</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="2">
         <f t="shared" si="0"/>
         <v>0.45198963533825537</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44">
         <v>84534</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>38008</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="2">
         <f t="shared" si="0"/>
         <v>0.44961790522156764</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45">
         <v>27052</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>11922</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="2">
         <f t="shared" si="0"/>
         <v>0.44070678692887771</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46">
         <v>17032</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>7324</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="2">
         <f t="shared" si="0"/>
         <v>0.43001409112259276</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47">
         <v>12691</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>5393</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="2">
         <f t="shared" si="0"/>
         <v>0.42494681270191476</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48">
         <v>11655923</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>4861272</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="2">
         <f t="shared" si="0"/>
         <v>0.41706452590669996</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49">
         <v>106459</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>44224</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="2">
         <f t="shared" si="0"/>
         <v>0.41540874890803031</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50">
         <v>450146793</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>185626506</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="2">
         <f t="shared" si="0"/>
         <v>0.41236882920545431</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51">
         <v>5401</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>2166</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="2">
         <f t="shared" si="0"/>
         <v>0.40103684502869841</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52">
         <v>627082</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>251280</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="2">
         <f t="shared" si="0"/>
         <v>0.40071314437346311</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53">
         <v>281646</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>110591</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="2">
         <f t="shared" si="0"/>
         <v>0.39265957975614779</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54">
         <v>41593</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>16178</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="2">
         <f t="shared" si="0"/>
         <v>0.38895968071550502</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55">
         <v>31816</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>12324</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="2">
         <f t="shared" si="0"/>
         <v>0.38735227558461149</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56">
         <v>3252412</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>1252713</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="2">
         <f t="shared" si="0"/>
         <v>0.38516430267752055</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57">
         <v>6871547</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>2583470</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="2">
         <f t="shared" si="0"/>
         <v>0.37596628532119475</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58">
         <v>67508936</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>24918627</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="2">
         <f t="shared" si="0"/>
         <v>0.36911597895721537</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59">
         <v>523798</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>186694</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="2">
         <f t="shared" si="0"/>
         <v>0.35642365950232724</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60">
         <v>18084</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>6290</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="2">
         <f t="shared" si="0"/>
         <v>0.34782127847821276</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61">
         <v>5023108</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>1735481</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="2">
         <f t="shared" si="0"/>
         <v>0.34549943978907083</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62">
         <v>744807803</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>252500063</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="2">
         <f t="shared" si="0"/>
         <v>0.33901371868414759</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
         <v>5643455</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>1877717</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="2">
         <f t="shared" si="0"/>
         <v>0.33272472270975845</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
         <v>49574</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>16448</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="2">
         <f t="shared" si="0"/>
         <v>0.33178682373824991</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65">
         <v>45038860</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>14913831</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="2">
         <f t="shared" si="0"/>
         <v>0.33113251534341676</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66">
         <v>4030361</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>1316836</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="2">
         <f t="shared" si="0"/>
         <v>0.32672904486719678</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67">
         <v>11596</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>3760</v>
       </c>
-      <c r="D67" s="1">
-        <f t="shared" ref="D67:D130" si="1">C67/B67</f>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67:E130" si="1">D67/C67</f>
         <v>0.32424974129010004</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68">
         <v>304568</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>98041</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="2">
         <f t="shared" si="1"/>
         <v>0.32190184129652494</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69">
         <v>4413</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>1403</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="2">
         <f t="shared" si="1"/>
         <v>0.31792431452526626</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70">
         <v>338289856</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>103436829</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="2">
         <f t="shared" si="1"/>
         <v>0.3057639097519968</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71">
         <v>171783</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>52287</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="2">
         <f t="shared" si="1"/>
         <v>0.30437819807547895</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72">
         <v>3422796</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>1037893</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="2">
         <f t="shared" si="1"/>
         <v>0.30322958189737281</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73">
         <v>3398373</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>1011448</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="2">
         <f t="shared" si="1"/>
         <v>0.29762712921742257</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74">
         <v>47558632</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>13980340</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="2">
         <f t="shared" si="1"/>
         <v>0.29396009540392165</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75">
         <v>64207</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>18860</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="2">
         <f t="shared" si="1"/>
         <v>0.29373744295793291</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76">
         <v>5434324</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>1507334</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="2">
         <f t="shared" si="1"/>
         <v>0.27737286183157278</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77">
         <v>289959</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>80064</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="2">
         <f t="shared" si="1"/>
         <v>0.27612179652985425</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78">
         <v>19603736</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>5399208</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="2">
         <f t="shared" si="1"/>
         <v>0.27541729800891013</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79">
         <v>123951696</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>33803572</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="2">
         <f t="shared" si="1"/>
         <v>0.27271568756913178</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80">
         <v>5540745</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>1499712</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="2">
         <f t="shared" si="1"/>
         <v>0.27066973845574921</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81">
         <v>10549349</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>2751572</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="2">
         <f t="shared" si="1"/>
         <v>0.26082860658036816</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82">
         <v>11335</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>2943</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="2">
         <f t="shared" si="1"/>
         <v>0.25963828848698722</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83">
         <v>306292</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>79301</v>
       </c>
-      <c r="D83" s="1">
+      <c r="E83" s="2">
         <f t="shared" si="1"/>
         <v>0.25890653363457095</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84">
         <v>99479</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>25389</v>
       </c>
-      <c r="D84" s="1">
+      <c r="E84" s="2">
         <f t="shared" si="1"/>
         <v>0.25521969460891242</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85">
         <v>1299478</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>327305</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="2">
         <f t="shared" si="1"/>
         <v>0.25187421410751087</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86">
         <v>44192</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>11051</v>
       </c>
-      <c r="D86" s="1">
+      <c r="E86" s="2">
         <f t="shared" si="1"/>
         <v>0.25006788559015208</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87">
         <v>15877</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>3904</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="2">
         <f t="shared" si="1"/>
         <v>0.24589028153933362</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88">
         <v>191173</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>45883</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="2">
         <f t="shared" si="1"/>
         <v>0.2400077416790028</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89">
         <v>5180836</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>1230653</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="2">
         <f t="shared" si="1"/>
         <v>0.23753946274307852</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90">
         <v>4408582</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>1044310</v>
       </c>
-      <c r="D90" s="1">
+      <c r="E90" s="2">
         <f t="shared" si="1"/>
         <v>0.2368811558909418</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91">
         <v>31332</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>7392</v>
       </c>
-      <c r="D91" s="1">
+      <c r="E91" s="2">
         <f t="shared" si="1"/>
         <v>0.2359249329758713</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92">
         <v>114178</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>26547</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="2">
         <f t="shared" si="1"/>
         <v>0.23250538632661283</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93">
         <v>533293</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>121413</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="2">
         <f t="shared" si="1"/>
         <v>0.22766659228604164</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94">
         <v>5489744</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>1239904</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E94" s="2">
         <f t="shared" si="1"/>
         <v>0.22585825495687958</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95">
         <v>9967304</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>2230325</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E95" s="2">
         <f t="shared" si="1"/>
         <v>0.22376411916401867</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96">
         <v>45510324</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>10130896</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="2">
         <f t="shared" si="1"/>
         <v>0.2226065452753094</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
         <v>72758</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>16047</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E97" s="2">
         <f t="shared" si="1"/>
         <v>0.2205530663294758</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98">
         <v>56494</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>11971</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E98" s="2">
         <f t="shared" si="1"/>
         <v>0.21189860870180904</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99">
         <v>600323657</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>124544432</v>
       </c>
-      <c r="D99" s="1">
+      <c r="E99" s="2">
         <f t="shared" si="1"/>
         <v>0.20746214237564187</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100">
         <v>85341248</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>17004714</v>
       </c>
-      <c r="D100" s="1">
+      <c r="E100" s="2">
         <f t="shared" si="1"/>
         <v>0.19925551123883259</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101">
         <v>6781955</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1329204</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="2">
         <f t="shared" si="1"/>
         <v>0.19599127390258414</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102">
         <v>3272993</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>635523</v>
       </c>
-      <c r="D102" s="1">
+      <c r="E102" s="2">
         <f t="shared" si="1"/>
         <v>0.19417181766047162</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103">
         <v>2695131</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>514524</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="2">
         <f t="shared" si="1"/>
         <v>0.19090871649652652</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104">
         <v>44295</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>8359</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E104" s="2">
         <f t="shared" si="1"/>
         <v>0.18871204424878654</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105">
         <v>19659270</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>3526775</v>
       </c>
-      <c r="D105" s="1">
+      <c r="E105" s="2">
         <f t="shared" si="1"/>
         <v>0.17939501314138318</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106">
         <v>405285</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>71409</v>
       </c>
-      <c r="D106" s="1">
+      <c r="E106" s="2">
         <f t="shared" si="1"/>
         <v>0.17619452977534328</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107">
         <v>215313504</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>37519960</v>
       </c>
-      <c r="D107" s="1">
+      <c r="E107" s="2">
         <f t="shared" si="1"/>
         <v>0.17425734709142998</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108">
         <v>179872</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>30252</v>
       </c>
-      <c r="D108" s="1">
+      <c r="E108" s="2">
         <f t="shared" si="1"/>
         <v>0.1681862657890055</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109">
         <v>2093606</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>350580</v>
       </c>
-      <c r="D109" s="1">
+      <c r="E109" s="2">
         <f t="shared" si="1"/>
         <v>0.16745271077748153</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110">
         <v>39857144</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>6662326</v>
       </c>
-      <c r="D110" s="1">
+      <c r="E110" s="2">
         <f t="shared" si="1"/>
         <v>0.16715512782350889</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111">
         <v>144713312</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>24116369</v>
       </c>
-      <c r="D111" s="1">
+      <c r="E111" s="2">
         <f t="shared" si="1"/>
         <v>0.16664927826404802</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112">
         <v>2780472</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>451831</v>
       </c>
-      <c r="D112" s="1">
+      <c r="E112" s="2">
         <f t="shared" si="1"/>
         <v>0.16250154650001869</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113">
         <v>106867</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>16958</v>
       </c>
-      <c r="D113" s="1">
+      <c r="E113" s="2">
         <f t="shared" si="1"/>
         <v>0.15868322307166852</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114">
         <v>436816679</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>68830698</v>
       </c>
-      <c r="D114" s="1">
+      <c r="E114" s="2">
         <f t="shared" si="1"/>
         <v>0.1575734199471811</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115">
         <v>125459</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>19693</v>
       </c>
-      <c r="D115" s="1">
+      <c r="E115" s="2">
         <f t="shared" si="1"/>
         <v>0.15696761491802103</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116">
         <v>4268886</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>667193</v>
       </c>
-      <c r="D116" s="1">
+      <c r="E116" s="2">
         <f t="shared" si="1"/>
         <v>0.15629206308156274</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117">
         <v>33938216</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>5279145</v>
       </c>
-      <c r="D117" s="1">
+      <c r="E117" s="2">
         <f t="shared" si="1"/>
         <v>0.15555163535997296</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118">
         <v>11285875</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>1746997</v>
       </c>
-      <c r="D118" s="1">
+      <c r="E118" s="2">
         <f t="shared" si="1"/>
         <v>0.15479499817249437</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119">
         <v>1782115</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>274279</v>
       </c>
-      <c r="D119" s="1">
+      <c r="E119" s="2">
         <f t="shared" si="1"/>
         <v>0.15390645384837678</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120">
         <v>45726</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>6754</v>
       </c>
-      <c r="D120" s="1">
+      <c r="E120" s="2">
         <f t="shared" si="1"/>
         <v>0.14770590036303197</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121">
         <v>39701744</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>5533238</v>
       </c>
-      <c r="D121" s="1">
+      <c r="E121" s="2">
         <f t="shared" si="1"/>
         <v>0.13937014958335331</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C122">
         <v>47681</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>6607</v>
       </c>
-      <c r="D122" s="1">
+      <c r="E122" s="2">
         <f t="shared" si="1"/>
         <v>0.13856672469117678</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123">
         <v>5250076</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>703228</v>
       </c>
-      <c r="D123" s="1">
+      <c r="E123" s="2">
         <f t="shared" si="1"/>
         <v>0.13394625144474098</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C124">
         <v>618046</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>82496</v>
       </c>
-      <c r="D124" s="1">
+      <c r="E124" s="2">
         <f t="shared" si="1"/>
         <v>0.13347873782857586</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125">
         <v>34049588</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>4524748</v>
       </c>
-      <c r="D125" s="1">
+      <c r="E125" s="2">
         <f t="shared" si="1"/>
         <v>0.13288701173124326</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C126">
         <v>326113</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>42027</v>
       </c>
-      <c r="D126" s="1">
+      <c r="E126" s="2">
         <f t="shared" si="1"/>
         <v>0.12887250738241038</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C127">
         <v>2630300</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>330650</v>
       </c>
-      <c r="D127" s="1">
+      <c r="E127" s="2">
         <f t="shared" si="1"/>
         <v>0.125708094133749</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128">
         <v>1531043</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>191496</v>
       </c>
-      <c r="D128" s="1">
+      <c r="E128" s="2">
         <f t="shared" si="1"/>
         <v>0.12507552041320852</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129">
         <v>3233530</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>403633</v>
       </c>
-      <c r="D129" s="1">
+      <c r="E129" s="2">
         <f t="shared" si="1"/>
         <v>0.12482735586185995</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130">
         <v>38454328</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>4789185</v>
       </c>
-      <c r="D130" s="1">
+      <c r="E130" s="2">
         <f t="shared" si="1"/>
         <v>0.12454215816747598</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C131">
         <v>51874028</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>6384874</v>
       </c>
-      <c r="D131" s="1">
-        <f t="shared" ref="D131:D194" si="2">C131/B131</f>
+      <c r="E131" s="2">
+        <f t="shared" ref="E131:E194" si="2">D131/C131</f>
         <v>0.12308421470567121</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132">
         <v>98186856</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>11624000</v>
       </c>
-      <c r="D132" s="1">
+      <c r="E132" s="2">
         <f t="shared" si="2"/>
         <v>0.11838651804881094</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133">
         <v>2842318</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>334863</v>
       </c>
-      <c r="D133" s="1">
+      <c r="E133" s="2">
         <f t="shared" si="2"/>
         <v>0.11781334811938707</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134">
         <v>9441138</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>1067030</v>
       </c>
-      <c r="D134" s="1">
+      <c r="E134" s="2">
         <f t="shared" si="2"/>
         <v>0.1130192144209734</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C135">
         <v>593162</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>64474</v>
       </c>
-      <c r="D135" s="1">
+      <c r="E135" s="2">
         <f t="shared" si="2"/>
         <v>0.10869543227651131</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C136">
         <v>6780745</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>735759</v>
       </c>
-      <c r="D136" s="1">
+      <c r="E136" s="2">
         <f t="shared" si="2"/>
         <v>0.10850710357047788</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C137">
         <v>9534956</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>994037</v>
       </c>
-      <c r="D137" s="1">
+      <c r="E137" s="2">
         <f t="shared" si="2"/>
         <v>0.10425187069557532</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C138">
         <v>11212198</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>1115043</v>
       </c>
-      <c r="D138" s="1">
+      <c r="E138" s="2">
         <f t="shared" si="2"/>
         <v>9.9449099989136827E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139">
         <v>12224114</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>1212131</v>
       </c>
-      <c r="D139" s="1">
+      <c r="E139" s="2">
         <f t="shared" si="2"/>
         <v>9.9159006534134092E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140">
         <v>7975105024</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>775335902</v>
       </c>
-      <c r="D140" s="1">
+      <c r="E140" s="2">
         <f t="shared" si="2"/>
         <v>9.7219522459796009E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C141">
         <v>93772</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>9106</v>
       </c>
-      <c r="D141" s="1">
+      <c r="E141" s="2">
         <f t="shared" si="2"/>
         <v>9.7107878684468713E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C142">
         <v>12356116</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>1153361</v>
       </c>
-      <c r="D142" s="1">
+      <c r="E142" s="2">
         <f t="shared" si="2"/>
         <v>9.3343328923101723E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C143">
         <v>103959</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>9674</v>
       </c>
-      <c r="D143" s="1">
+      <c r="E143" s="2">
         <f t="shared" si="2"/>
         <v>9.3055916274685208E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C144">
         <v>409989</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>38084</v>
       </c>
-      <c r="D144" s="1">
+      <c r="E144" s="2">
         <f t="shared" si="2"/>
         <v>9.2890297056750309E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C145">
         <v>808727</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>74109</v>
       </c>
-      <c r="D145" s="1">
+      <c r="E145" s="2">
         <f t="shared" si="2"/>
         <v>9.1636609140043554E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C146">
         <v>4576300</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>399449</v>
       </c>
-      <c r="D146" s="1">
+      <c r="E146" s="2">
         <f t="shared" si="2"/>
         <v>8.7286454122325899E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147">
         <v>88550568</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>7627186</v>
       </c>
-      <c r="D147" s="1">
+      <c r="E147" s="2">
         <f t="shared" si="2"/>
         <v>8.6133676748408883E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C148">
         <v>47</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>4</v>
       </c>
-      <c r="D148" s="1">
+      <c r="E148" s="2">
         <f t="shared" si="2"/>
         <v>8.5106382978723402E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C149">
         <v>10358078</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>835327</v>
       </c>
-      <c r="D149" s="1">
+      <c r="E149" s="2">
         <f t="shared" si="2"/>
         <v>8.0644980661470203E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150">
         <v>782457</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>62697</v>
       </c>
-      <c r="D150" s="1">
+      <c r="E150" s="2">
         <f t="shared" si="2"/>
         <v>8.0128364881392841E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C151">
         <v>19397998</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>1503687</v>
       </c>
-      <c r="D151" s="1">
+      <c r="E151" s="2">
         <f t="shared" si="2"/>
         <v>7.7517638675908718E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152">
         <v>222390</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>17057</v>
       </c>
-      <c r="D152" s="1">
+      <c r="E152" s="2">
         <f t="shared" si="2"/>
         <v>7.6698592562615228E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C153">
         <v>6812344</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>507269</v>
       </c>
-      <c r="D153" s="1">
+      <c r="E153" s="2">
         <f t="shared" si="2"/>
         <v>7.4463209726343821E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C154">
         <v>929769</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>69047</v>
       </c>
-      <c r="D154" s="1">
+      <c r="E154" s="2">
         <f t="shared" si="2"/>
         <v>7.4262531876197205E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C155">
         <v>17843914</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>1250351</v>
       </c>
-      <c r="D155" s="1">
+      <c r="E155" s="2">
         <f t="shared" si="2"/>
         <v>7.00715661373396E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C156">
         <v>1425887360</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>99350327</v>
       </c>
-      <c r="D156" s="1">
+      <c r="E156" s="2">
         <f t="shared" si="2"/>
         <v>6.9676139775865606E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C157">
         <v>59893884</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>4072661</v>
       </c>
-      <c r="D157" s="1">
+      <c r="E157" s="2">
         <f t="shared" si="2"/>
         <v>6.7997944497972446E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C158">
         <v>2567024</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>172403</v>
       </c>
-      <c r="D158" s="1">
+      <c r="E158" s="2">
         <f t="shared" si="2"/>
         <v>6.7160649841996017E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159">
         <v>71697024</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>4771628</v>
       </c>
-      <c r="D159" s="1">
+      <c r="E159" s="2">
         <f t="shared" si="2"/>
         <v>6.6552664724270849E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C160">
         <v>4721383370</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>301400116</v>
       </c>
-      <c r="D160" s="1">
+      <c r="E160" s="2">
         <f t="shared" si="2"/>
         <v>6.3837246921128549E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C161">
         <v>1201680</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>75191</v>
       </c>
-      <c r="D161" s="1">
+      <c r="E161" s="2">
         <f t="shared" si="2"/>
         <v>6.2571566473603624E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C162">
         <v>127504120</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>7709747</v>
       </c>
-      <c r="D162" s="1">
+      <c r="E162" s="2">
         <f t="shared" si="2"/>
         <v>6.0466650018838608E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C163">
         <v>18001002</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>1075965</v>
       </c>
-      <c r="D163" s="1">
+      <c r="E163" s="2">
         <f t="shared" si="2"/>
         <v>5.9772505997166159E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C164">
         <v>11228821</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>661181</v>
       </c>
-      <c r="D164" s="1">
+      <c r="E164" s="2">
         <f t="shared" si="2"/>
         <v>5.8882495321637064E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C165">
         <v>2827382</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>156810</v>
       </c>
-      <c r="D165" s="1">
+      <c r="E165" s="2">
         <f t="shared" si="2"/>
         <v>5.5461200502797285E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C166">
         <v>44496124</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>2465545</v>
       </c>
-      <c r="D166" s="1">
+      <c r="E166" s="2">
         <f t="shared" si="2"/>
         <v>5.541033192014657E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C167">
         <v>10432858</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>472785</v>
       </c>
-      <c r="D167" s="1">
+      <c r="E167" s="2">
         <f t="shared" si="2"/>
         <v>4.5316920828405792E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C168">
         <v>1893</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>80</v>
       </c>
-      <c r="D168" s="1">
+      <c r="E168" s="2">
         <f t="shared" si="2"/>
         <v>4.226096143687269E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C169">
         <v>131237</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>5085</v>
       </c>
-      <c r="D169" s="1">
+      <c r="E169" s="2">
         <f t="shared" si="2"/>
         <v>3.8746694910734014E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C170">
         <v>326744</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>12019</v>
       </c>
-      <c r="D170" s="1">
+      <c r="E170" s="2">
         <f t="shared" si="2"/>
         <v>3.6784149058590211E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171">
         <v>115559008</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>4173631</v>
       </c>
-      <c r="D171" s="1">
+      <c r="E171" s="2">
         <f t="shared" si="2"/>
         <v>3.6116881515632256E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C172">
         <v>724272</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>25954</v>
       </c>
-      <c r="D172" s="1">
+      <c r="E172" s="2">
         <f t="shared" si="2"/>
         <v>3.5834603574347756E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C173">
         <v>37457976</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>1279038</v>
       </c>
-      <c r="D173" s="1">
+      <c r="E173" s="2">
         <f t="shared" si="2"/>
         <v>3.4145945312154612E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C174">
         <v>30547586</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>1003450</v>
       </c>
-      <c r="D174" s="1">
+      <c r="E174" s="2">
         <f t="shared" si="2"/>
         <v>3.2848749488748476E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C175">
         <v>808</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>26</v>
       </c>
-      <c r="D175" s="1">
+      <c r="E175" s="2">
         <f t="shared" si="2"/>
         <v>3.2178217821782179E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C176">
         <v>6336393</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>201864</v>
       </c>
-      <c r="D176" s="1">
+      <c r="E176" s="2">
         <f t="shared" si="2"/>
         <v>3.1857872452040144E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C177">
         <v>1417173120</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>45035573</v>
       </c>
-      <c r="D177" s="1">
+      <c r="E177" s="2">
         <f t="shared" si="2"/>
         <v>3.1778455549594395E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C178">
         <v>21832150</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>672754</v>
       </c>
-      <c r="D178" s="1">
+      <c r="E178" s="2">
         <f t="shared" si="2"/>
         <v>3.0814830422106847E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C179">
         <v>227393</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>6766</v>
       </c>
-      <c r="D179" s="1">
+      <c r="E179" s="2">
         <f t="shared" si="2"/>
         <v>2.9754653837189358E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C180">
         <v>7529477</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>219023</v>
       </c>
-      <c r="D180" s="1">
+      <c r="E180" s="2">
         <f t="shared" si="2"/>
         <v>2.90887401608372E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C181">
         <v>275501344</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>6828963</v>
       </c>
-      <c r="D181" s="1">
+      <c r="E181" s="2">
         <f t="shared" si="2"/>
         <v>2.4787403577965848E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C182">
         <v>36408824</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <v>841469</v>
       </c>
-      <c r="D182" s="1">
+      <c r="E182" s="2">
         <f t="shared" si="2"/>
         <v>2.3111677542784682E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C183">
         <v>2388997</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <v>49051</v>
       </c>
-      <c r="D183" s="1">
+      <c r="E183" s="2">
         <f t="shared" si="2"/>
         <v>2.0532047549662053E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184">
         <v>28301700</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>552695</v>
       </c>
-      <c r="D184" s="1">
+      <c r="E184" s="2">
         <f t="shared" si="2"/>
         <v>1.9528685555991337E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C185">
         <v>1341298</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>23460</v>
       </c>
-      <c r="D185" s="1">
+      <c r="E185" s="2">
         <f t="shared" si="2"/>
         <v>1.7490520376530792E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C186">
         <v>20017670</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <v>349616</v>
       </c>
-      <c r="D186" s="1">
+      <c r="E186" s="2">
         <f t="shared" si="2"/>
         <v>1.7465369346182646E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C187">
         <v>16320539</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <v>266359</v>
       </c>
-      <c r="D187" s="1">
+      <c r="E187" s="2">
         <f t="shared" si="2"/>
         <v>1.6320478141071199E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C188">
         <v>2305826</v>
       </c>
-      <c r="C188">
+      <c r="D188">
         <v>36138</v>
       </c>
-      <c r="D188" s="1">
+      <c r="E188" s="2">
         <f t="shared" si="2"/>
         <v>1.5672474852829313E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C189">
         <v>1120851</v>
       </c>
-      <c r="C189">
+      <c r="D189">
         <v>15690</v>
       </c>
-      <c r="D189" s="1">
+      <c r="E189" s="2">
         <f t="shared" si="2"/>
         <v>1.3998292368923256E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C190">
         <v>4736146</v>
       </c>
-      <c r="C190">
+      <c r="D190">
         <v>63848</v>
       </c>
-      <c r="D190" s="1">
+      <c r="E190" s="2">
         <f t="shared" si="2"/>
         <v>1.348100333055611E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C191">
         <v>6630621</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <v>88953</v>
       </c>
-      <c r="D191" s="1">
+      <c r="E191" s="2">
         <f t="shared" si="2"/>
         <v>1.3415485517872307E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C192">
         <v>171186368</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <v>2049728</v>
       </c>
-      <c r="D192" s="1">
+      <c r="E192" s="2">
         <f t="shared" si="2"/>
         <v>1.1973663697333657E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C193">
         <v>54179312</v>
       </c>
-      <c r="C193">
+      <c r="D193">
         <v>642013</v>
       </c>
-      <c r="D193" s="1">
+      <c r="E193" s="2">
         <f t="shared" si="2"/>
         <v>1.1849781333509736E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C194">
         <v>836783</v>
       </c>
-      <c r="C194">
+      <c r="D194">
         <v>9109</v>
       </c>
-      <c r="D194" s="1">
+      <c r="E194" s="2">
         <f t="shared" si="2"/>
         <v>1.0885737401452945E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C195">
         <v>1674916</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <v>17130</v>
       </c>
-      <c r="D195" s="1">
-        <f t="shared" ref="D195:D252" si="3">C195/B195</f>
+      <c r="E195" s="2">
+        <f t="shared" ref="E195:E252" si="3">D195/C195</f>
         <v>1.0227378567044556E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196">
         <v>13776702</v>
       </c>
-      <c r="C196">
+      <c r="D196">
         <v>133225</v>
       </c>
-      <c r="D196" s="1">
+      <c r="E196" s="2">
         <f t="shared" si="3"/>
         <v>9.6703115157749653E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197">
         <v>1426736614</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <v>13140505</v>
       </c>
-      <c r="D197" s="1">
+      <c r="E197" s="2">
         <f t="shared" si="3"/>
         <v>9.210182784304714E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C198">
         <v>16767851</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <v>139103</v>
       </c>
-      <c r="D198" s="1">
+      <c r="E198" s="2">
         <f t="shared" si="3"/>
         <v>8.2958156057088058E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199">
         <v>32969520</v>
       </c>
-      <c r="C199">
+      <c r="D199">
         <v>233780</v>
       </c>
-      <c r="D199" s="1">
+      <c r="E199" s="2">
         <f t="shared" si="3"/>
         <v>7.0907917373380022E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C200">
         <v>235824864</v>
       </c>
-      <c r="C200">
+      <c r="D200">
         <v>1580631</v>
       </c>
-      <c r="D200" s="1">
+      <c r="E200" s="2">
         <f t="shared" si="3"/>
         <v>6.702562966388481E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C201">
         <v>54027484</v>
       </c>
-      <c r="C201">
+      <c r="D201">
         <v>344101</v>
       </c>
-      <c r="D201" s="1">
+      <c r="E201" s="2">
         <f t="shared" si="3"/>
         <v>6.368999156059164E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C202">
         <v>44903228</v>
       </c>
-      <c r="C202">
+      <c r="D202">
         <v>272021</v>
       </c>
-      <c r="D202" s="1">
+      <c r="E202" s="2">
         <f t="shared" si="3"/>
         <v>6.057938640847825E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C203">
         <v>41128772</v>
       </c>
-      <c r="C203">
+      <c r="D203">
         <v>233472</v>
       </c>
-      <c r="D203" s="1">
+      <c r="E203" s="2">
         <f t="shared" si="3"/>
         <v>5.6766100383449326E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C204">
         <v>17316452</v>
       </c>
-      <c r="C204">
+      <c r="D204">
         <v>89067</v>
       </c>
-      <c r="D204" s="1">
+      <c r="E204" s="2">
         <f t="shared" si="3"/>
         <v>5.1434901329671925E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C205">
         <v>33475870</v>
       </c>
-      <c r="C205">
+      <c r="D205">
         <v>171932</v>
       </c>
-      <c r="D205" s="1">
+      <c r="E205" s="2">
         <f t="shared" si="3"/>
         <v>5.1359979591269773E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C206">
         <v>34627648</v>
       </c>
-      <c r="C206">
+      <c r="D206">
         <v>175081</v>
       </c>
-      <c r="D206" s="1">
+      <c r="E206" s="2">
         <f t="shared" si="3"/>
         <v>5.0561043013952322E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C207">
         <v>2705995</v>
       </c>
-      <c r="C207">
+      <c r="D207">
         <v>12626</v>
       </c>
-      <c r="D207" s="1">
+      <c r="E207" s="2">
         <f t="shared" si="3"/>
         <v>4.6659361898303579E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C208">
         <v>110990096</v>
       </c>
-      <c r="C208">
+      <c r="D208">
         <v>516023</v>
       </c>
-      <c r="D208" s="1">
+      <c r="E208" s="2">
         <f t="shared" si="3"/>
         <v>4.6492706880801324E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C209">
         <v>10142625</v>
       </c>
-      <c r="C209">
+      <c r="D209">
         <v>46864</v>
       </c>
-      <c r="D209" s="1">
+      <c r="E209" s="2">
         <f t="shared" si="3"/>
         <v>4.6205001170801447E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C210">
         <v>2105580</v>
       </c>
-      <c r="C210">
+      <c r="D210">
         <v>9614</v>
       </c>
-      <c r="D210" s="1">
+      <c r="E210" s="2">
         <f t="shared" si="3"/>
         <v>4.5659628225951992E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C211">
         <v>27914542</v>
       </c>
-      <c r="C211">
+      <c r="D211">
         <v>125156</v>
       </c>
-      <c r="D211" s="1">
+      <c r="E211" s="2">
         <f t="shared" si="3"/>
         <v>4.4835412309469384E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C212">
         <v>8848700</v>
       </c>
-      <c r="C212">
+      <c r="D212">
         <v>39529</v>
       </c>
-      <c r="D212" s="1">
+      <c r="E212" s="2">
         <f t="shared" si="3"/>
         <v>4.4672098726366589E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C213">
         <v>20405318</v>
       </c>
-      <c r="C213">
+      <c r="D213">
         <v>89168</v>
       </c>
-      <c r="D213" s="1">
+      <c r="E213" s="2">
         <f t="shared" si="3"/>
         <v>4.3698412345252353E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C214">
         <v>12889583</v>
       </c>
-      <c r="C214">
+      <c r="D214">
         <v>54569</v>
       </c>
-      <c r="D214" s="1">
+      <c r="E214" s="2">
         <f t="shared" si="3"/>
         <v>4.2335737315939547E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C215">
         <v>5970430</v>
       </c>
-      <c r="C215">
+      <c r="D215">
         <v>25218</v>
       </c>
-      <c r="D215" s="1">
+      <c r="E215" s="2">
         <f t="shared" si="3"/>
         <v>4.2238163750349641E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C216">
         <v>123379928</v>
       </c>
-      <c r="C216">
+      <c r="D216">
         <v>501163</v>
       </c>
-      <c r="D216" s="1">
+      <c r="E216" s="2">
         <f t="shared" si="3"/>
         <v>4.0619492013320027E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C217">
         <v>47249588</v>
       </c>
-      <c r="C217">
+      <c r="D217">
         <v>172149</v>
       </c>
-      <c r="D217" s="1">
+      <c r="E217" s="2">
         <f t="shared" si="3"/>
         <v>3.6433968482434175E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C218">
         <v>28160548</v>
       </c>
-      <c r="C218">
+      <c r="D218">
         <v>88408</v>
       </c>
-      <c r="D218" s="1">
+      <c r="E218" s="2">
         <f t="shared" si="3"/>
         <v>3.1394275423901551E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C219">
         <v>35588996</v>
       </c>
-      <c r="C219">
+      <c r="D219">
         <v>107365</v>
       </c>
-      <c r="D219" s="1">
+      <c r="E219" s="2">
         <f t="shared" si="3"/>
         <v>3.0168032838015437E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C220">
         <v>11585003</v>
       </c>
-      <c r="C220">
+      <c r="D220">
         <v>34298</v>
       </c>
-      <c r="D220" s="1">
+      <c r="E220" s="2">
         <f t="shared" si="3"/>
         <v>2.9605516718467831E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C221">
         <v>13859349</v>
       </c>
-      <c r="C221">
+      <c r="D221">
         <v>38572</v>
       </c>
-      <c r="D221" s="1">
+      <c r="E221" s="2">
         <f t="shared" si="3"/>
         <v>2.7831033044914302E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C222">
         <v>5579148</v>
       </c>
-      <c r="C222">
+      <c r="D222">
         <v>15440</v>
       </c>
-      <c r="D222" s="1">
+      <c r="E222" s="2">
         <f t="shared" si="3"/>
         <v>2.7674476461280466E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C223">
         <v>3684041</v>
       </c>
-      <c r="C223">
+      <c r="D223">
         <v>10189</v>
       </c>
-      <c r="D223" s="1">
+      <c r="E223" s="2">
         <f t="shared" si="3"/>
         <v>2.7657129765928231E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C224">
         <v>22125242</v>
       </c>
-      <c r="C224">
+      <c r="D224">
         <v>57423</v>
       </c>
-      <c r="D224" s="1">
+      <c r="E224" s="2">
         <f t="shared" si="3"/>
         <v>2.5953614428262527E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C225">
         <v>6948395</v>
       </c>
-      <c r="C225">
+      <c r="D225">
         <v>16140</v>
       </c>
-      <c r="D225" s="1">
+      <c r="E225" s="2">
         <f t="shared" si="3"/>
         <v>2.3228385835865691E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C226">
         <v>29611718</v>
       </c>
-      <c r="C226">
+      <c r="D226">
         <v>68495</v>
       </c>
-      <c r="D226" s="1">
+      <c r="E226" s="2">
         <f t="shared" si="3"/>
         <v>2.3131045621871721E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C227">
         <v>13352864</v>
       </c>
-      <c r="C227">
+      <c r="D227">
         <v>28036</v>
       </c>
-      <c r="D227" s="1">
+      <c r="E227" s="2">
         <f t="shared" si="3"/>
         <v>2.0996244700762323E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C228">
         <v>9952789</v>
       </c>
-      <c r="C228">
+      <c r="D228">
         <v>17786</v>
       </c>
-      <c r="D228" s="1">
+      <c r="E228" s="2">
         <f t="shared" si="3"/>
         <v>1.787036779338937E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C229">
         <v>10913172</v>
       </c>
-      <c r="C229">
+      <c r="D229">
         <v>18823</v>
       </c>
-      <c r="D229" s="1">
+      <c r="E229" s="2">
         <f t="shared" si="3"/>
         <v>1.7247964203258228E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C230">
         <v>17597508</v>
       </c>
-      <c r="C230">
+      <c r="D230">
         <v>27334</v>
       </c>
-      <c r="D230" s="1">
+      <c r="E230" s="2">
         <f t="shared" si="3"/>
         <v>1.5532881132942233E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C231">
         <v>5302690</v>
       </c>
-      <c r="C231">
+      <c r="D231">
         <v>8090</v>
       </c>
-      <c r="D231" s="1">
+      <c r="E231" s="2">
         <f t="shared" si="3"/>
         <v>1.5256407596898932E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C232">
         <v>22593598</v>
       </c>
-      <c r="C232">
+      <c r="D232">
         <v>33164</v>
       </c>
-      <c r="D232" s="1">
+      <c r="E232" s="2">
         <f t="shared" si="3"/>
         <v>1.4678494323923086E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C233">
         <v>46874200</v>
       </c>
-      <c r="C233">
+      <c r="D233">
         <v>63993</v>
       </c>
-      <c r="D233" s="1">
+      <c r="E233" s="2">
         <f t="shared" si="3"/>
         <v>1.3652072995379121E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C234">
         <v>218541216</v>
       </c>
-      <c r="C234">
+      <c r="D234">
         <v>267188</v>
       </c>
-      <c r="D234" s="1">
+      <c r="E234" s="2">
         <f t="shared" si="3"/>
         <v>1.2225977547411469E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C235">
         <v>99010216</v>
       </c>
-      <c r="C235">
+      <c r="D235">
         <v>99338</v>
       </c>
-      <c r="D235" s="1">
+      <c r="E235" s="2">
         <f t="shared" si="3"/>
         <v>1.00331060786697E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C236">
         <v>22673764</v>
       </c>
-      <c r="C236">
+      <c r="D236">
         <v>22122</v>
       </c>
-      <c r="D236" s="1">
+      <c r="E236" s="2">
         <f t="shared" si="3"/>
         <v>9.7566509027790886E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C237">
         <v>8605723</v>
       </c>
-      <c r="C237">
+      <c r="D237">
         <v>7794</v>
       </c>
-      <c r="D237" s="1">
+      <c r="E237" s="2">
         <f t="shared" si="3"/>
         <v>9.0567637373408373E-4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C238">
         <v>65497752</v>
       </c>
-      <c r="C238">
+      <c r="D238">
         <v>43225</v>
       </c>
-      <c r="D238" s="1">
+      <c r="E238" s="2">
         <f t="shared" si="3"/>
         <v>6.5994631388265046E-4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C239">
         <v>17723312</v>
       </c>
-      <c r="C239">
+      <c r="D239">
         <v>7702</v>
       </c>
-      <c r="D239" s="1">
+      <c r="E239" s="2">
         <f t="shared" si="3"/>
         <v>4.3456888870432343E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C240">
         <v>26207982</v>
       </c>
-      <c r="C240">
+      <c r="D240">
         <v>9515</v>
       </c>
-      <c r="D240" s="1">
+      <c r="E240" s="2">
         <f t="shared" si="3"/>
         <v>3.6305733115964443E-4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C241">
         <v>33696612</v>
       </c>
-      <c r="C241">
+      <c r="D241">
         <v>11945</v>
       </c>
-      <c r="D241" s="1">
+      <c r="E241" s="2">
         <f t="shared" si="3"/>
         <v>3.5448667658339065E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C242">
         <v>56550000</v>
       </c>
-      <c r="C242">
+      <c r="D242">
         <v>0</v>
       </c>
-      <c r="D242" s="1">
+      <c r="E242" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C243">
         <v>23893396</v>
       </c>
-      <c r="C243">
+      <c r="D243">
         <v>0</v>
       </c>
-      <c r="D243" s="1">
+      <c r="E243" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C244">
         <v>7488863</v>
       </c>
-      <c r="C244">
+      <c r="D244">
         <v>0</v>
       </c>
-      <c r="D244" s="1">
+      <c r="E244" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C245">
         <v>576005</v>
       </c>
-      <c r="C245">
+      <c r="D245">
         <v>0</v>
       </c>
-      <c r="D245" s="1">
+      <c r="E245" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C246">
         <v>26069416</v>
       </c>
-      <c r="C246">
+      <c r="D246">
         <v>0</v>
       </c>
-      <c r="D246" s="1">
+      <c r="E246" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C247">
         <v>1896000</v>
       </c>
-      <c r="C247">
+      <c r="D247">
         <v>0</v>
       </c>
-      <c r="D247" s="1">
+      <c r="E247" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C248">
         <v>695180</v>
       </c>
-      <c r="C248">
+      <c r="D248">
         <v>0</v>
       </c>
-      <c r="D248" s="1">
+      <c r="E248" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C249">
         <v>382836</v>
       </c>
-      <c r="C249">
+      <c r="D249">
         <v>0</v>
       </c>
-      <c r="D249" s="1">
+      <c r="E249" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C250">
         <v>3170000</v>
       </c>
-      <c r="C250">
+      <c r="D250">
         <v>0</v>
       </c>
-      <c r="D250" s="1">
+      <c r="E250" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C251">
         <v>5466000</v>
       </c>
-      <c r="C251">
+      <c r="D251">
         <v>0</v>
       </c>
-      <c r="D251" s="1">
+      <c r="E251" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C252">
         <v>6430777</v>
       </c>
-      <c r="C252">
+      <c r="D252">
         <v>0</v>
       </c>
-      <c r="D252" s="1">
+      <c r="E252" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
